--- a/podatki/Lega držav.xlsx
+++ b/podatki/Lega držav.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\rstudio-projekt\APPR-2017-18\podatki\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15120" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="490">
   <si>
     <t>AD</t>
   </si>
@@ -73,9 +78,6 @@
     <t>AQ</t>
   </si>
   <si>
-    <t>-0.071389</t>
-  </si>
-  <si>
     <t>Antarctica</t>
   </si>
   <si>
@@ -256,9 +258,6 @@
     <t>CG</t>
   </si>
   <si>
-    <t>-0.228021</t>
-  </si>
-  <si>
     <t>Congo [Republic]</t>
   </si>
   <si>
@@ -457,9 +456,6 @@
     <t>GA</t>
   </si>
   <si>
-    <t>-0.803689</t>
-  </si>
-  <si>
     <t>Gabon</t>
   </si>
   <si>
@@ -598,9 +594,6 @@
     <t>HR</t>
   </si>
   <si>
-    <t>45.1</t>
-  </si>
-  <si>
     <t>Croatia</t>
   </si>
   <si>
@@ -619,9 +612,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>-0.789275</t>
-  </si>
-  <si>
     <t>Indonesia</t>
   </si>
   <si>
@@ -706,9 +696,6 @@
     <t>KE</t>
   </si>
   <si>
-    <t>-0.023559</t>
-  </si>
-  <si>
     <t>Kenya</t>
   </si>
   <si>
@@ -1027,9 +1014,6 @@
     <t>NR</t>
   </si>
   <si>
-    <t>-0.522778</t>
-  </si>
-  <si>
     <t>Nauru</t>
   </si>
   <si>
@@ -1264,9 +1248,6 @@
     <t>ST</t>
   </si>
   <si>
-    <t>0.18636</t>
-  </si>
-  <si>
     <t>São Tomé and Príncipe</t>
   </si>
   <si>
@@ -1309,9 +1290,6 @@
     <t>TG</t>
   </si>
   <si>
-    <t>0.824782</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1399,12 +1377,6 @@
     <t>Uganda</t>
   </si>
   <si>
-    <t>UM</t>
-  </si>
-  <si>
-    <t>U.S. Minor Outlying Islands</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
@@ -1514,9 +1486,6 @@
   </si>
   <si>
     <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
   </si>
   <si>
     <t>source: https://developers.google.com/public-data/docs/canonical/countries_csv</t>
@@ -1525,8 +1494,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1556,30 +1528,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pisarna">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1617,9 +1594,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pisarna">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1651,9 +1628,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1685,9 +1663,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pisarna">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1860,3459 +1839,2714 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D248"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="A248" sqref="A248"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>42546245</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1601554</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>42.546244999999999</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>23424076</v>
-      </c>
-      <c r="C3" s="2">
-        <v>53847818</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>23.424075999999999</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>3393911</v>
-      </c>
-      <c r="C4" s="2">
-        <v>67709953</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>33.939109999999999</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>17060816</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-61796428</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>17.060815999999999</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>18220554</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-63068615</v>
-      </c>
-      <c r="D6" s="1" t="s">
+        <v>18.220554</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>41153332</v>
-      </c>
-      <c r="C7" s="2">
-        <v>20168331</v>
-      </c>
-      <c r="D7" s="1" t="s">
+        <v>41.153331999999999</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>40069099</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45038189</v>
-      </c>
-      <c r="D8" s="1" t="s">
+        <v>40.069099000000001</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2">
-        <v>12226079</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-69060087</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>12.226079</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2">
-        <v>-11202692</v>
-      </c>
-      <c r="C10" s="2">
-        <v>17873887</v>
-      </c>
-      <c r="D10" s="1" t="s">
+        <v>-11.202692000000001</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2">
-        <v>-75250973</v>
+        <v>-75.250973000000002</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="30">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="2">
+        <v>-38.416097000000001</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2">
-        <v>-38416097</v>
-      </c>
-      <c r="C12" s="2">
-        <v>-63616672</v>
-      </c>
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="2">
+        <v>-14.270972</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2">
-        <v>-14270972</v>
-      </c>
-      <c r="C13" s="2">
-        <v>-170132217</v>
-      </c>
-      <c r="D13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="2">
+        <v>47.516230999999998</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2">
-        <v>47516231</v>
-      </c>
-      <c r="C14" s="2">
-        <v>14550072</v>
-      </c>
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2">
+        <v>-25.274398000000001</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2">
-        <v>-25274398</v>
-      </c>
-      <c r="C15" s="2">
-        <v>133775136</v>
-      </c>
-      <c r="D15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2">
+        <v>12.52111</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2">
-        <v>1252111</v>
-      </c>
-      <c r="C16" s="2">
-        <v>-69968338</v>
-      </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="30">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="2">
+        <v>40.143104999999998</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2">
-        <v>40143105</v>
-      </c>
-      <c r="C17" s="2">
-        <v>47576927</v>
-      </c>
-      <c r="D17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="60">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2">
+        <v>43.915886</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="2">
-        <v>43915886</v>
-      </c>
-      <c r="C18" s="2">
-        <v>17679076</v>
-      </c>
-      <c r="D18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2">
+        <v>13.193887</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="2">
-        <v>13193887</v>
-      </c>
-      <c r="C19" s="2">
-        <v>-59543198</v>
-      </c>
-      <c r="D19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="30">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="2">
+        <v>23.684994</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="2">
-        <v>23684994</v>
-      </c>
-      <c r="C20" s="2">
-        <v>90356331</v>
-      </c>
-      <c r="D20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2">
+        <v>50.503886999999999</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="2">
-        <v>50503887</v>
-      </c>
-      <c r="C21" s="2">
-        <v>4469936</v>
-      </c>
-      <c r="D21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="30">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2">
+        <v>12.238333000000001</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="2">
-        <v>12238333</v>
-      </c>
-      <c r="C22" s="2">
-        <v>-1561593</v>
-      </c>
-      <c r="D22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2">
+        <v>42.733882999999999</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="2">
-        <v>42733883</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2548583</v>
-      </c>
-      <c r="D23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="2">
+        <v>25.930413999999999</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="2">
-        <v>25930414</v>
-      </c>
-      <c r="C24" s="2">
-        <v>50637772</v>
-      </c>
-      <c r="D24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="2">
+        <v>-3.3730560000000001</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="2">
-        <v>-3373056</v>
-      </c>
-      <c r="C25" s="2">
-        <v>29918886</v>
-      </c>
-      <c r="D25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="2">
+        <v>9.3076899999999991</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="2">
-        <v>930769</v>
-      </c>
-      <c r="C26" s="2">
-        <v>2315834</v>
-      </c>
-      <c r="D26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="2">
+        <v>32.321384000000002</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="2">
-        <v>32321384</v>
-      </c>
-      <c r="C27" s="2">
-        <v>-6475737</v>
-      </c>
-      <c r="D27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="2">
+        <v>4.5352769999999998</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="2">
-        <v>4535277</v>
-      </c>
-      <c r="C28" s="2">
-        <v>114727669</v>
-      </c>
-      <c r="D28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="2">
+        <v>-16.290154000000001</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="2">
-        <v>-16290154</v>
-      </c>
-      <c r="C29" s="2">
-        <v>-63588653</v>
-      </c>
-      <c r="D29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="2">
+        <v>-14.235004</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="2">
-        <v>-14235004</v>
-      </c>
-      <c r="C30" s="2">
-        <v>-5192528</v>
-      </c>
-      <c r="D30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="2">
+        <v>25.034279999999999</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="2">
-        <v>2503428</v>
-      </c>
-      <c r="C31" s="2">
-        <v>-7739628</v>
-      </c>
-      <c r="D31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="2">
+        <v>27.514161999999999</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="2">
-        <v>27514162</v>
-      </c>
-      <c r="C32" s="2">
-        <v>90433601</v>
-      </c>
-      <c r="D32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="30">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="2">
+        <v>-54.423198999999997</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="2">
-        <v>-54423199</v>
-      </c>
-      <c r="C33" s="2">
-        <v>3413194</v>
-      </c>
-      <c r="D33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="30">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="2">
+        <v>-22.328474</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="2">
-        <v>-22328474</v>
-      </c>
-      <c r="C34" s="2">
-        <v>24684866</v>
-      </c>
-      <c r="D34" s="1" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="2">
+        <v>53.709806999999998</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="2">
-        <v>53709807</v>
-      </c>
-      <c r="C35" s="2">
-        <v>27953389</v>
-      </c>
-      <c r="D35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="2">
+        <v>17.189876999999999</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="2">
-        <v>17189877</v>
-      </c>
-      <c r="C36" s="2">
-        <v>-8849765</v>
-      </c>
-      <c r="D36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="2">
+        <v>56.130366000000002</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="2">
-        <v>56130366</v>
-      </c>
-      <c r="C37" s="2">
-        <v>-106346771</v>
-      </c>
-      <c r="D37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="45">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="2">
+        <v>-12.164165000000001</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="2">
-        <v>-12164165</v>
-      </c>
-      <c r="C38" s="2">
-        <v>96870956</v>
-      </c>
-      <c r="D38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="30">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="2">
+        <v>-4.0383329999999997</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="2">
-        <v>-4038333</v>
-      </c>
-      <c r="C39" s="2">
-        <v>21758664</v>
-      </c>
-      <c r="D39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="45">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="2">
+        <v>6.6111110000000002</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="2">
-        <v>6611111</v>
-      </c>
-      <c r="C40" s="2">
-        <v>20939444</v>
-      </c>
-      <c r="D40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="45">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="2">
+        <v>-0.228021</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="2">
-        <v>15827659</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="B42" s="2">
+        <v>46.818187999999999</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="2">
-        <v>46818188</v>
-      </c>
-      <c r="C42" s="2">
-        <v>8227512</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="B43" s="2">
+        <v>7.5399890000000003</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="2">
-        <v>7539989</v>
-      </c>
-      <c r="C43" s="2">
-        <v>-554708</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="B44" s="2">
+        <v>-21.236736000000001</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="30">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="2">
-        <v>-21236736</v>
-      </c>
-      <c r="C44" s="2">
-        <v>-159777671</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="B45" s="2">
+        <v>-35.675147000000003</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="2">
-        <v>-35675147</v>
-      </c>
-      <c r="C45" s="2">
-        <v>-71542969</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="B46" s="2">
+        <v>7.3697220000000003</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="30">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="2">
-        <v>7369722</v>
-      </c>
-      <c r="C46" s="2">
-        <v>12354722</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="B47" s="2">
+        <v>35.861660000000001</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="2">
-        <v>3586166</v>
-      </c>
-      <c r="C47" s="2">
-        <v>104195397</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="B48" s="2">
+        <v>4.5708679999999999</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="30">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="2">
-        <v>4570868</v>
-      </c>
-      <c r="C48" s="2">
-        <v>-74297333</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="B49" s="2">
+        <v>9.7489170000000005</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="2">
-        <v>9748917</v>
-      </c>
-      <c r="C49" s="2">
-        <v>-83753428</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="B50" s="2">
+        <v>21.521757000000001</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="2">
-        <v>21521757</v>
-      </c>
-      <c r="C50" s="2">
-        <v>-77781167</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="B51" s="2">
+        <v>16.002082000000001</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="30">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="2">
-        <v>16002082</v>
-      </c>
-      <c r="C51" s="2">
-        <v>-24013197</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="B52" s="2">
+        <v>-10.447525000000001</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="2">
-        <v>-10447525</v>
-      </c>
-      <c r="C52" s="2">
-        <v>105690449</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="B53" s="2">
+        <v>35.126412999999999</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="2">
-        <v>35126413</v>
-      </c>
-      <c r="C53" s="2">
-        <v>33429859</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="B54" s="2">
+        <v>49.817492000000001</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="2">
-        <v>49817492</v>
-      </c>
-      <c r="C54" s="2">
-        <v>15472962</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="B55" s="2">
+        <v>51.165691000000002</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="2">
-        <v>51165691</v>
-      </c>
-      <c r="C55" s="2">
-        <v>10451526</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="B56" s="2">
+        <v>11.825138000000001</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="2">
-        <v>11825138</v>
-      </c>
-      <c r="C56" s="2">
-        <v>42590275</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="B57" s="2">
+        <v>56.263919999999999</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="2">
-        <v>5626392</v>
-      </c>
-      <c r="C57" s="2">
-        <v>9501785</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="B58" s="2">
+        <v>15.414999</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="2">
-        <v>15414999</v>
-      </c>
-      <c r="C58" s="2">
-        <v>-61370976</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="B59" s="2">
+        <v>18.735693000000001</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="45">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="2">
-        <v>18735693</v>
-      </c>
-      <c r="C59" s="2">
-        <v>-70162651</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="B60" s="2">
+        <v>28.033885999999999</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="2">
-        <v>28033886</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1659626</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="B61" s="2">
+        <v>-1.8312390000000001</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="2">
-        <v>-1831239</v>
-      </c>
-      <c r="C61" s="2">
-        <v>-78183406</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="B62" s="2">
+        <v>58.595272000000001</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="2">
-        <v>58595272</v>
-      </c>
-      <c r="C62" s="2">
-        <v>25013607</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="B63" s="2">
+        <v>26.820553</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="2">
-        <v>26820553</v>
-      </c>
-      <c r="C63" s="2">
-        <v>30802498</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="B64" s="2">
+        <v>24.215527000000002</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="2">
-        <v>24215527</v>
-      </c>
-      <c r="C64" s="2">
-        <v>-12885834</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="B65" s="2">
+        <v>15.179384000000001</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="2">
-        <v>15179384</v>
-      </c>
-      <c r="C65" s="2">
-        <v>39782334</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="B66" s="2">
+        <v>40.463667000000001</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="2">
-        <v>40463667</v>
-      </c>
-      <c r="C66" s="2">
-        <v>-374922</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="B67" s="2">
+        <v>9.1449999999999996</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="2">
-        <v>9145</v>
-      </c>
-      <c r="C67" s="2">
-        <v>40489673</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="B68" s="2">
+        <v>61.924109999999999</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="2">
-        <v>6192411</v>
-      </c>
-      <c r="C68" s="2">
-        <v>25748151</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="B69" s="2">
+        <v>-16.578192999999999</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="2">
-        <v>-16578193</v>
-      </c>
-      <c r="C69" s="2">
-        <v>179414413</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="B70" s="2">
+        <v>-51.796253</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="75">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="2">
-        <v>-51796253</v>
-      </c>
-      <c r="C70" s="2">
-        <v>-59523613</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="B71" s="2">
+        <v>7.425554</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="30">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="2">
-        <v>7425554</v>
-      </c>
-      <c r="C71" s="2">
-        <v>150550812</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="B72" s="2">
+        <v>61.892634999999999</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="30">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="2">
-        <v>61892635</v>
-      </c>
-      <c r="C72" s="2">
-        <v>-6911806</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="B73" s="2">
+        <v>46.227637999999999</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="2">
-        <v>46227638</v>
-      </c>
-      <c r="C73" s="2">
-        <v>2213749</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="B74" s="2">
+        <v>-0.80368899999999999</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="2">
+        <v>55.378050999999999</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="2">
-        <v>11609444</v>
-      </c>
-      <c r="D74" s="1" t="s">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="30">
-      <c r="A75" s="1" t="s">
+      <c r="B76" s="2">
+        <v>12.262776000000001</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B75" s="2">
-        <v>55378051</v>
-      </c>
-      <c r="C75" s="2">
-        <v>-3435973</v>
-      </c>
-      <c r="D75" s="1" t="s">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="1" t="s">
+      <c r="B77" s="2">
+        <v>42.315407</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B76" s="2">
-        <v>12262776</v>
-      </c>
-      <c r="C76" s="2">
-        <v>-61604171</v>
-      </c>
-      <c r="D76" s="1" t="s">
+    </row>
+    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="1" t="s">
+      <c r="B78" s="2">
+        <v>3.9338890000000002</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B77" s="2">
-        <v>42315407</v>
-      </c>
-      <c r="C77" s="2">
-        <v>43356892</v>
-      </c>
-      <c r="D77" s="1" t="s">
+    </row>
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="30">
-      <c r="A78" s="1" t="s">
+      <c r="B79" s="2">
+        <v>49.465691</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B78" s="2">
-        <v>3933889</v>
-      </c>
-      <c r="C78" s="2">
-        <v>-53125782</v>
-      </c>
-      <c r="D78" s="1" t="s">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="30">
-      <c r="A79" s="1" t="s">
+      <c r="B80" s="2">
+        <v>7.9465269999999997</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="2">
-        <v>49465691</v>
-      </c>
-      <c r="C79" s="2">
-        <v>-2585278</v>
-      </c>
-      <c r="D79" s="1" t="s">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="1" t="s">
+      <c r="B81" s="2">
+        <v>36.137740999999998</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B80" s="2">
-        <v>7946527</v>
-      </c>
-      <c r="C80" s="2">
-        <v>-1023194</v>
-      </c>
-      <c r="D80" s="1" t="s">
+    </row>
+    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="1" t="s">
+      <c r="B82" s="2">
+        <v>71.706935999999999</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B81" s="2">
-        <v>36137741</v>
-      </c>
-      <c r="C81" s="2">
-        <v>-5345374</v>
-      </c>
-      <c r="D81" s="1" t="s">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="30">
-      <c r="A82" s="1" t="s">
+      <c r="B83" s="2">
+        <v>13.443182</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B82" s="2">
-        <v>71706936</v>
-      </c>
-      <c r="C82" s="2">
-        <v>-42604303</v>
-      </c>
-      <c r="D82" s="1" t="s">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="1" t="s">
+      <c r="B84" s="2">
+        <v>9.9455869999999997</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B83" s="2">
-        <v>13443182</v>
-      </c>
-      <c r="C83" s="2">
-        <v>-15310139</v>
-      </c>
-      <c r="D83" s="1" t="s">
+    </row>
+    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="1" t="s">
+      <c r="B85" s="2">
+        <v>16.995971000000001</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B84" s="2">
-        <v>9945587</v>
-      </c>
-      <c r="C84" s="2">
-        <v>-9696645</v>
-      </c>
-      <c r="D84" s="1" t="s">
+    </row>
+    <row r="86" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="30">
-      <c r="A85" s="1" t="s">
+      <c r="B86" s="2">
+        <v>1.650801</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B85" s="2">
-        <v>16995971</v>
-      </c>
-      <c r="C85" s="2">
-        <v>-62067641</v>
-      </c>
-      <c r="D85" s="1" t="s">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="45">
-      <c r="A86" s="1" t="s">
+      <c r="B87" s="2">
+        <v>39.074207999999999</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B86" s="2">
-        <v>1650801</v>
-      </c>
-      <c r="C86" s="2">
-        <v>10267895</v>
-      </c>
-      <c r="D86" s="1" t="s">
+    </row>
+    <row r="88" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="1" t="s">
+      <c r="B88" s="2">
+        <v>-54.429578999999997</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B87" s="2">
-        <v>39074208</v>
-      </c>
-      <c r="C87" s="2">
-        <v>21824312</v>
-      </c>
-      <c r="D87" s="1" t="s">
+    </row>
+    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="90">
-      <c r="A88" s="1" t="s">
+      <c r="B89" s="2">
+        <v>15.783471</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B88" s="2">
-        <v>-54429579</v>
-      </c>
-      <c r="C88" s="2">
-        <v>-36587909</v>
-      </c>
-      <c r="D88" s="1" t="s">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="30">
-      <c r="A89" s="1" t="s">
+      <c r="B90" s="2">
+        <v>13.444304000000001</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="2">
-        <v>15783471</v>
-      </c>
-      <c r="C89" s="2">
-        <v>-90230759</v>
-      </c>
-      <c r="D89" s="1" t="s">
+    </row>
+    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="1" t="s">
+      <c r="B91" s="2">
+        <v>11.803749</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B90" s="2">
-        <v>13444304</v>
-      </c>
-      <c r="C90" s="2">
-        <v>144793731</v>
-      </c>
-      <c r="D90" s="1" t="s">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="30">
-      <c r="A91" s="1" t="s">
+      <c r="B92" s="2">
+        <v>4.8604159999999998</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B91" s="2">
-        <v>11803749</v>
-      </c>
-      <c r="C91" s="2">
-        <v>-15180413</v>
-      </c>
-      <c r="D91" s="1" t="s">
+    </row>
+    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="1" t="s">
+      <c r="B93" s="2">
+        <v>31.354676000000001</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B92" s="2">
-        <v>4860416</v>
-      </c>
-      <c r="C92" s="2">
-        <v>-5893018</v>
-      </c>
-      <c r="D92" s="1" t="s">
+    </row>
+    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="30">
-      <c r="A93" s="1" t="s">
+      <c r="B94" s="2">
+        <v>22.396428</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B93" s="2">
-        <v>31354676</v>
-      </c>
-      <c r="C93" s="2">
-        <v>34308825</v>
-      </c>
-      <c r="D93" s="1" t="s">
+    </row>
+    <row r="95" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="30">
-      <c r="A94" s="1" t="s">
+      <c r="B95" s="2">
+        <v>-53.081809999999997</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B94" s="2">
-        <v>22396428</v>
-      </c>
-      <c r="C94" s="2">
-        <v>114109497</v>
-      </c>
-      <c r="D94" s="1" t="s">
+    </row>
+    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="75">
-      <c r="A95" s="1" t="s">
+      <c r="B96" s="2">
+        <v>15.199999</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B95" s="2">
-        <v>-5308181</v>
-      </c>
-      <c r="C95" s="2">
-        <v>73504158</v>
-      </c>
-      <c r="D95" s="1" t="s">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="30">
-      <c r="A96" s="1" t="s">
+      <c r="B97" s="2">
+        <v>45.1</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B96" s="2">
-        <v>15199999</v>
-      </c>
-      <c r="C96" s="2">
-        <v>-86241905</v>
-      </c>
-      <c r="D96" s="1" t="s">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="1" t="s">
+      <c r="B98" s="2">
+        <v>18.971187</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B97" s="1" t="s">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C97" s="3">
-        <v>42781</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="B99" s="2">
+        <v>47.162494000000002</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="1" t="s">
+    <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B98" s="2">
-        <v>18971187</v>
-      </c>
-      <c r="C98" s="2">
-        <v>-72285215</v>
-      </c>
-      <c r="D98" s="1" t="s">
+      <c r="B100" s="2">
+        <v>-0.78927499999999995</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="1" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B99" s="2">
-        <v>47162494</v>
-      </c>
-      <c r="C99" s="2">
-        <v>19503304</v>
-      </c>
-      <c r="D99" s="1" t="s">
+      <c r="B101" s="2">
+        <v>53.412909999999997</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="30">
-      <c r="A100" s="1" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B102" s="2">
+        <v>31.046050999999999</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C100" s="2">
-        <v>113921327</v>
-      </c>
-      <c r="D100" s="1" t="s">
+    </row>
+    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="1" t="s">
+      <c r="B103" s="2">
+        <v>54.236106999999997</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B101" s="2">
-        <v>5341291</v>
-      </c>
-      <c r="C101" s="2">
-        <v>-824389</v>
-      </c>
-      <c r="D101" s="1" t="s">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="1" t="s">
+      <c r="B104" s="2">
+        <v>20.593684</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B102" s="2">
-        <v>31046051</v>
-      </c>
-      <c r="C102" s="2">
-        <v>34851612</v>
-      </c>
-      <c r="D102" s="1" t="s">
+    </row>
+    <row r="105" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="30">
-      <c r="A103" s="1" t="s">
+      <c r="B105" s="2">
+        <v>-6.3431940000000004</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B103" s="2">
-        <v>54236107</v>
-      </c>
-      <c r="C103" s="2">
-        <v>-4548056</v>
-      </c>
-      <c r="D103" s="1" t="s">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="1" t="s">
+      <c r="B106" s="2">
+        <v>33.223191</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B104" s="2">
-        <v>20593684</v>
-      </c>
-      <c r="C104" s="2">
-        <v>7896288</v>
-      </c>
-      <c r="D104" s="1" t="s">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="60">
-      <c r="A105" s="1" t="s">
+      <c r="B107" s="2">
+        <v>32.427908000000002</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B105" s="2">
-        <v>-6343194</v>
-      </c>
-      <c r="C105" s="2">
-        <v>71876519</v>
-      </c>
-      <c r="D105" s="1" t="s">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="1" t="s">
+      <c r="B108" s="2">
+        <v>64.963050999999993</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B106" s="2">
-        <v>33223191</v>
-      </c>
-      <c r="C106" s="2">
-        <v>43679291</v>
-      </c>
-      <c r="D106" s="1" t="s">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="1" t="s">
+      <c r="B109" s="2">
+        <v>41.871940000000002</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B107" s="2">
-        <v>32427908</v>
-      </c>
-      <c r="C107" s="2">
-        <v>53688046</v>
-      </c>
-      <c r="D107" s="1" t="s">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="1" t="s">
+      <c r="B110" s="2">
+        <v>49.214438999999999</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B108" s="2">
-        <v>64963051</v>
-      </c>
-      <c r="C108" s="2">
-        <v>-19020835</v>
-      </c>
-      <c r="D108" s="1" t="s">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="1" t="s">
+      <c r="B111" s="2">
+        <v>18.109580999999999</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B109" s="2">
-        <v>4187194</v>
-      </c>
-      <c r="C109" s="2">
-        <v>1256738</v>
-      </c>
-      <c r="D109" s="1" t="s">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="1" t="s">
+      <c r="B112" s="2">
+        <v>30.585163999999999</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B110" s="2">
-        <v>49214439</v>
-      </c>
-      <c r="C110" s="2">
-        <v>-213125</v>
-      </c>
-      <c r="D110" s="1" t="s">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="1" t="s">
+      <c r="B113" s="2">
+        <v>36.204824000000002</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B111" s="2">
-        <v>18109581</v>
-      </c>
-      <c r="C111" s="2">
-        <v>-77297508</v>
-      </c>
-      <c r="D111" s="1" t="s">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="1" t="s">
+      <c r="B114" s="2">
+        <v>-2.3559E-2</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B112" s="2">
-        <v>30585164</v>
-      </c>
-      <c r="C112" s="2">
-        <v>36238414</v>
-      </c>
-      <c r="D112" s="1" t="s">
+    </row>
+    <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="1" t="s">
+      <c r="B115" s="2">
+        <v>41.20438</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B113" s="2">
-        <v>36204824</v>
-      </c>
-      <c r="C113" s="2">
-        <v>138252924</v>
-      </c>
-      <c r="D113" s="1" t="s">
+    </row>
+    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="1" t="s">
+      <c r="B116" s="2">
+        <v>12.565678999999999</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B114" s="1" t="s">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C114" s="2">
-        <v>37906193</v>
-      </c>
-      <c r="D114" s="1" t="s">
+      <c r="B117" s="2">
+        <v>-3.3704170000000002</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="30">
-      <c r="A115" s="1" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B115" s="2">
-        <v>4120438</v>
-      </c>
-      <c r="C115" s="2">
-        <v>74766098</v>
-      </c>
-      <c r="D115" s="1" t="s">
+      <c r="B118" s="2">
+        <v>-11.875000999999999</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="30">
-      <c r="A116" s="1" t="s">
+    <row r="119" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B116" s="2">
-        <v>12565679</v>
-      </c>
-      <c r="C116" s="2">
-        <v>104990963</v>
-      </c>
-      <c r="D116" s="1" t="s">
+      <c r="B119" s="2">
+        <v>17.357821999999999</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="1" t="s">
+    <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B117" s="2">
-        <v>-3370417</v>
-      </c>
-      <c r="C117" s="2">
-        <v>-168734039</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="B120" s="2">
+        <v>40.339852</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="1" t="s">
+    <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B118" s="2">
-        <v>-11875001</v>
-      </c>
-      <c r="C118" s="2">
-        <v>43872219</v>
-      </c>
-      <c r="D118" s="1" t="s">
+      <c r="B121" s="2">
+        <v>35.907756999999997</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="45">
-      <c r="A119" s="1" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B119" s="2">
-        <v>17357822</v>
-      </c>
-      <c r="C119" s="2">
-        <v>-62782998</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="B122" s="2">
+        <v>29.31166</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="30">
-      <c r="A120" s="1" t="s">
+    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B120" s="2">
-        <v>40339852</v>
-      </c>
-      <c r="C120" s="2">
-        <v>127510093</v>
-      </c>
-      <c r="D120" s="1" t="s">
+      <c r="B123" s="2">
+        <v>19.513469000000001</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="30">
-      <c r="A121" s="1" t="s">
+    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B121" s="2">
-        <v>35907757</v>
-      </c>
-      <c r="C121" s="2">
-        <v>127766922</v>
-      </c>
-      <c r="D121" s="1" t="s">
+      <c r="B124" s="2">
+        <v>48.019573000000001</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="1" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B122" s="2">
-        <v>2931166</v>
-      </c>
-      <c r="C122" s="2">
-        <v>47481766</v>
-      </c>
-      <c r="D122" s="1" t="s">
+      <c r="B125" s="2">
+        <v>19.856269999999999</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="30">
-      <c r="A123" s="1" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B123" s="2">
-        <v>19513469</v>
-      </c>
-      <c r="C123" s="2">
-        <v>-80566956</v>
-      </c>
-      <c r="D123" s="1" t="s">
+      <c r="B126" s="2">
+        <v>33.854720999999998</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="30">
-      <c r="A124" s="1" t="s">
+    <row r="127" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B124" s="2">
-        <v>48019573</v>
-      </c>
-      <c r="C124" s="2">
-        <v>66923684</v>
-      </c>
-      <c r="D124" s="1" t="s">
+      <c r="B127" s="2">
+        <v>13.909444000000001</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="1" t="s">
+    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B125" s="2">
-        <v>1985627</v>
-      </c>
-      <c r="C125" s="2">
-        <v>102495496</v>
-      </c>
-      <c r="D125" s="1" t="s">
+      <c r="B128" s="2">
+        <v>47.165999999999997</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="1" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B126" s="2">
-        <v>33854721</v>
-      </c>
-      <c r="C126" s="2">
-        <v>35862285</v>
-      </c>
-      <c r="D126" s="1" t="s">
+      <c r="B129" s="2">
+        <v>7.8730539999999998</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="30">
-      <c r="A127" s="1" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B127" s="2">
-        <v>13909444</v>
-      </c>
-      <c r="C127" s="2">
-        <v>-60978893</v>
-      </c>
-      <c r="D127" s="1" t="s">
+      <c r="B130" s="2">
+        <v>6.4280549999999996</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="30">
-      <c r="A128" s="1" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B128" s="2">
-        <v>47166</v>
-      </c>
-      <c r="C128" s="2">
-        <v>9555373</v>
-      </c>
-      <c r="D128" s="1" t="s">
+      <c r="B131" s="2">
+        <v>-29.609988000000001</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="1" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B129" s="2">
-        <v>7873054</v>
-      </c>
-      <c r="C129" s="2">
-        <v>80771797</v>
-      </c>
-      <c r="D129" s="1" t="s">
+      <c r="B132" s="2">
+        <v>55.169438</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="1" t="s">
+    <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B130" s="2">
-        <v>6428055</v>
-      </c>
-      <c r="C130" s="2">
-        <v>-9429499</v>
-      </c>
-      <c r="D130" s="1" t="s">
+      <c r="B133" s="2">
+        <v>49.815272999999998</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="1" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B131" s="2">
-        <v>-29609988</v>
-      </c>
-      <c r="C131" s="2">
-        <v>28233608</v>
-      </c>
-      <c r="D131" s="1" t="s">
+      <c r="B134" s="2">
+        <v>56.879635</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="1" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B132" s="2">
-        <v>55169438</v>
-      </c>
-      <c r="C132" s="2">
-        <v>23881275</v>
-      </c>
-      <c r="D132" s="1" t="s">
+      <c r="B135" s="2">
+        <v>26.335100000000001</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="30">
-      <c r="A133" s="1" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B133" s="2">
-        <v>49815273</v>
-      </c>
-      <c r="C133" s="2">
-        <v>6129583</v>
-      </c>
-      <c r="D133" s="1" t="s">
+      <c r="B136" s="2">
+        <v>31.791702000000001</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="1" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B134" s="2">
-        <v>56879635</v>
-      </c>
-      <c r="C134" s="2">
-        <v>24603189</v>
-      </c>
-      <c r="D134" s="1" t="s">
+      <c r="B137" s="2">
+        <v>43.750298000000001</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="1" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B135" s="2">
-        <v>263351</v>
-      </c>
-      <c r="C135" s="2">
-        <v>17228331</v>
-      </c>
-      <c r="D135" s="1" t="s">
+      <c r="B138" s="2">
+        <v>47.411631</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="1" t="s">
+    <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B136" s="2">
-        <v>31791702</v>
-      </c>
-      <c r="C136" s="2">
-        <v>-709262</v>
-      </c>
-      <c r="D136" s="1" t="s">
+      <c r="B139" s="2">
+        <v>42.708677999999999</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="1" t="s">
+    <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B137" s="2">
-        <v>43750298</v>
-      </c>
-      <c r="C137" s="2">
-        <v>7412841</v>
-      </c>
-      <c r="D137" s="1" t="s">
+      <c r="B140" s="2">
+        <v>-18.766946999999998</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="1" t="s">
+    <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B138" s="2">
-        <v>47411631</v>
-      </c>
-      <c r="C138" s="2">
-        <v>28369885</v>
-      </c>
-      <c r="D138" s="1" t="s">
+      <c r="B141" s="2">
+        <v>7.1314739999999999</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="30">
-      <c r="A139" s="1" t="s">
+    <row r="142" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B139" s="2">
-        <v>42708678</v>
-      </c>
-      <c r="C139" s="2">
-        <v>1937439</v>
-      </c>
-      <c r="D139" s="1" t="s">
+      <c r="B142" s="2">
+        <v>41.608635</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="30">
-      <c r="A140" s="1" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B140" s="2">
-        <v>-18766947</v>
-      </c>
-      <c r="C140" s="2">
-        <v>46869107</v>
-      </c>
-      <c r="D140" s="1" t="s">
+      <c r="B143" s="2">
+        <v>17.570692000000001</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="30">
-      <c r="A141" s="1" t="s">
+    <row r="144" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B141" s="2">
-        <v>7131474</v>
-      </c>
-      <c r="C141" s="2">
-        <v>171184478</v>
-      </c>
-      <c r="D141" s="1" t="s">
+      <c r="B144" s="2">
+        <v>21.913965000000001</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="45">
-      <c r="A142" s="1" t="s">
+    <row r="145" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B142" s="2">
-        <v>41608635</v>
-      </c>
-      <c r="C142" s="2">
-        <v>21745275</v>
-      </c>
-      <c r="D142" s="1" t="s">
+      <c r="B145" s="2">
+        <v>46.862496</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="1" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B143" s="2">
-        <v>17570692</v>
-      </c>
-      <c r="C143" s="2">
-        <v>-3996166</v>
-      </c>
-      <c r="D143" s="1" t="s">
+      <c r="B146" s="2">
+        <v>22.198744999999999</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="45">
-      <c r="A144" s="1" t="s">
+    <row r="147" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B144" s="2">
-        <v>21913965</v>
-      </c>
-      <c r="C144" s="2">
-        <v>95956223</v>
-      </c>
-      <c r="D144" s="1" t="s">
+      <c r="B147" s="2">
+        <v>17.330829999999999</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="30">
-      <c r="A145" s="1" t="s">
+    <row r="148" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B145" s="2">
-        <v>46862496</v>
-      </c>
-      <c r="C145" s="2">
-        <v>103846656</v>
-      </c>
-      <c r="D145" s="1" t="s">
+      <c r="B148" s="2">
+        <v>14.641527999999999</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="1" t="s">
+    <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B146" s="2">
-        <v>22198745</v>
-      </c>
-      <c r="C146" s="2">
-        <v>113543873</v>
-      </c>
-      <c r="D146" s="1" t="s">
+      <c r="B149" s="2">
+        <v>21.00789</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="45">
-      <c r="A147" s="1" t="s">
+    <row r="150" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B147" s="2">
-        <v>1733083</v>
-      </c>
-      <c r="C147" s="2">
-        <v>14538469</v>
-      </c>
-      <c r="D147" s="1" t="s">
+      <c r="B150" s="2">
+        <v>16.742498000000001</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="30">
-      <c r="A148" s="1" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B148" s="2">
-        <v>14641528</v>
-      </c>
-      <c r="C148" s="2">
-        <v>-61024174</v>
-      </c>
-      <c r="D148" s="1" t="s">
+      <c r="B151" s="2">
+        <v>35.937496000000003</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="30">
-      <c r="A149" s="1" t="s">
+    <row r="152" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B149" s="2">
-        <v>2100789</v>
-      </c>
-      <c r="C149" s="2">
-        <v>-10940835</v>
-      </c>
-      <c r="D149" s="1" t="s">
+      <c r="B152" s="2">
+        <v>-20.348403999999999</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="30">
-      <c r="A150" s="1" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B150" s="2">
-        <v>16742498</v>
-      </c>
-      <c r="C150" s="2">
-        <v>-62187366</v>
-      </c>
-      <c r="D150" s="1" t="s">
+      <c r="B153" s="2">
+        <v>3.2027779999999999</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="1" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B151" s="2">
-        <v>35937496</v>
-      </c>
-      <c r="C151" s="2">
-        <v>14375416</v>
-      </c>
-      <c r="D151" s="1" t="s">
+      <c r="B154" s="2">
+        <v>-13.254308</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="30">
-      <c r="A152" s="1" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B152" s="2">
-        <v>-20348404</v>
-      </c>
-      <c r="C152" s="2">
-        <v>57552152</v>
-      </c>
-      <c r="D152" s="1" t="s">
+      <c r="B155" s="2">
+        <v>23.634501</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="1" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B153" s="2">
-        <v>3202778</v>
-      </c>
-      <c r="C153" s="2">
-        <v>7322068</v>
-      </c>
-      <c r="D153" s="1" t="s">
+      <c r="B156" s="2">
+        <v>4.2104840000000001</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="1" t="s">
+    <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B154" s="2">
-        <v>-13254308</v>
-      </c>
-      <c r="C154" s="2">
-        <v>34301525</v>
-      </c>
-      <c r="D154" s="1" t="s">
+      <c r="B157" s="2">
+        <v>-18.665694999999999</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="1" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B155" s="2">
-        <v>23634501</v>
-      </c>
-      <c r="C155" s="2">
-        <v>-102552784</v>
-      </c>
-      <c r="D155" s="1" t="s">
+      <c r="B158" s="2">
+        <v>-22.957640000000001</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="1" t="s">
+    <row r="159" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B156" s="2">
-        <v>4210484</v>
-      </c>
-      <c r="C156" s="2">
-        <v>101975766</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="B159" s="2">
+        <v>-20.904305000000001</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="30">
-      <c r="A157" s="1" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B157" s="2">
-        <v>-18665695</v>
-      </c>
-      <c r="C157" s="2">
-        <v>35529562</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="B160" s="2">
+        <v>17.607789</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="1" t="s">
+    <row r="161" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B158" s="2">
-        <v>-2295764</v>
-      </c>
-      <c r="C158" s="2">
-        <v>1849041</v>
-      </c>
-      <c r="D158" s="1" t="s">
+      <c r="B161" s="2">
+        <v>-29.040835000000001</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="45">
-      <c r="A159" s="1" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B159" s="2">
-        <v>-20904305</v>
-      </c>
-      <c r="C159" s="2">
-        <v>165618042</v>
-      </c>
-      <c r="D159" s="1" t="s">
+      <c r="B162" s="2">
+        <v>9.0819989999999997</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="1" t="s">
+    <row r="163" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B160" s="2">
-        <v>17607789</v>
-      </c>
-      <c r="C160" s="2">
-        <v>8081666</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="B163" s="2">
+        <v>12.865416</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="30">
-      <c r="A161" s="1" t="s">
+    <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B161" s="2">
-        <v>-29040835</v>
-      </c>
-      <c r="C161" s="2">
-        <v>167954712</v>
-      </c>
-      <c r="D161" s="1" t="s">
+      <c r="B164" s="2">
+        <v>52.132632999999998</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="1" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B162" s="2">
-        <v>9081999</v>
-      </c>
-      <c r="C162" s="2">
-        <v>8675277</v>
-      </c>
-      <c r="D162" s="1" t="s">
+      <c r="B165" s="2">
+        <v>60.472023999999998</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="30">
-      <c r="A163" s="1" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B163" s="2">
-        <v>12865416</v>
-      </c>
-      <c r="C163" s="2">
-        <v>-85207229</v>
-      </c>
-      <c r="D163" s="1" t="s">
+      <c r="B166" s="2">
+        <v>28.394856999999998</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="30">
-      <c r="A164" s="1" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B164" s="2">
-        <v>52132633</v>
-      </c>
-      <c r="C164" s="2">
-        <v>5291266</v>
-      </c>
-      <c r="D164" s="1" t="s">
+      <c r="B167" s="2">
+        <v>-0.52277799999999996</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="1" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B165" s="2">
-        <v>60472024</v>
-      </c>
-      <c r="C165" s="2">
-        <v>8468946</v>
-      </c>
-      <c r="D165" s="1" t="s">
+      <c r="B168" s="2">
+        <v>-19.054445000000001</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="1" t="s">
+    <row r="169" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B166" s="2">
-        <v>28394857</v>
-      </c>
-      <c r="C166" s="2">
-        <v>84124008</v>
-      </c>
-      <c r="D166" s="1" t="s">
+      <c r="B169" s="2">
+        <v>-40.900556999999999</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="1" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B170" s="2">
+        <v>21.512582999999999</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C167" s="2">
-        <v>166931503</v>
-      </c>
-      <c r="D167" s="1" t="s">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="1" t="s">
+      <c r="B171" s="2">
+        <v>8.5379810000000003</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B168" s="2">
-        <v>-19054445</v>
-      </c>
-      <c r="C168" s="2">
-        <v>-169867233</v>
-      </c>
-      <c r="D168" s="1" t="s">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" ht="30">
-      <c r="A169" s="1" t="s">
+      <c r="B172" s="2">
+        <v>-9.1899669999999993</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B169" s="2">
-        <v>-40900557</v>
-      </c>
-      <c r="C169" s="2">
-        <v>174885971</v>
-      </c>
-      <c r="D169" s="1" t="s">
+    </row>
+    <row r="173" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="1" t="s">
+      <c r="B173" s="2">
+        <v>-17.679742000000001</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B170" s="2">
-        <v>21512583</v>
-      </c>
-      <c r="C170" s="2">
-        <v>55923255</v>
-      </c>
-      <c r="D170" s="1" t="s">
+    </row>
+    <row r="174" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="1" t="s">
+      <c r="B174" s="2">
+        <v>-6.3149930000000003</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B171" s="2">
-        <v>8537981</v>
-      </c>
-      <c r="C171" s="2">
-        <v>-80782127</v>
-      </c>
-      <c r="D171" s="1" t="s">
+    </row>
+    <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="1" t="s">
+      <c r="B175" s="2">
+        <v>12.879721</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B172" s="2">
-        <v>-9189967</v>
-      </c>
-      <c r="C172" s="2">
-        <v>-75015152</v>
-      </c>
-      <c r="D172" s="1" t="s">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" ht="45">
-      <c r="A173" s="1" t="s">
+      <c r="B176" s="2">
+        <v>30.375321</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B173" s="2">
-        <v>-17679742</v>
-      </c>
-      <c r="C173" s="2">
-        <v>-149406843</v>
-      </c>
-      <c r="D173" s="1" t="s">
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" ht="45">
-      <c r="A174" s="1" t="s">
+      <c r="B177" s="2">
+        <v>51.919438</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B174" s="2">
-        <v>-6314993</v>
-      </c>
-      <c r="C174" s="2">
-        <v>14395555</v>
-      </c>
-      <c r="D174" s="1" t="s">
+    </row>
+    <row r="178" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" ht="30">
-      <c r="A175" s="1" t="s">
+      <c r="B178" s="2">
+        <v>46.941935999999998</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B175" s="2">
-        <v>12879721</v>
-      </c>
-      <c r="C175" s="2">
-        <v>121774017</v>
-      </c>
-      <c r="D175" s="1" t="s">
+    </row>
+    <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="1" t="s">
+      <c r="B179" s="2">
+        <v>-24.703614999999999</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B176" s="2">
-        <v>30375321</v>
-      </c>
-      <c r="C176" s="2">
-        <v>69345116</v>
-      </c>
-      <c r="D176" s="1" t="s">
+    </row>
+    <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="1" t="s">
+      <c r="B180" s="2">
+        <v>18.220832999999999</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B177" s="2">
-        <v>51919438</v>
-      </c>
-      <c r="C177" s="2">
-        <v>19145136</v>
-      </c>
-      <c r="D177" s="1" t="s">
+    </row>
+    <row r="181" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" ht="75">
-      <c r="A178" s="1" t="s">
+      <c r="B181" s="2">
+        <v>31.952162000000001</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B178" s="2">
-        <v>46941936</v>
-      </c>
-      <c r="C178" s="2">
-        <v>-5627111</v>
-      </c>
-      <c r="D178" s="1" t="s">
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" ht="30">
-      <c r="A179" s="1" t="s">
+      <c r="B182" s="2">
+        <v>39.399872000000002</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B179" s="2">
-        <v>-24703615</v>
-      </c>
-      <c r="C179" s="2">
-        <v>-127439308</v>
-      </c>
-      <c r="D179" s="1" t="s">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" ht="30">
-      <c r="A180" s="1" t="s">
+      <c r="B183" s="2">
+        <v>7.5149800000000004</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B180" s="2">
-        <v>18220833</v>
-      </c>
-      <c r="C180" s="2">
-        <v>-66590149</v>
-      </c>
-      <c r="D180" s="1" t="s">
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" ht="60">
-      <c r="A181" s="1" t="s">
+      <c r="B184" s="2">
+        <v>-23.442502999999999</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B181" s="2">
-        <v>31952162</v>
-      </c>
-      <c r="C181" s="2">
-        <v>35233154</v>
-      </c>
-      <c r="D181" s="1" t="s">
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="1" t="s">
+      <c r="B185" s="2">
+        <v>25.354825999999999</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B182" s="2">
-        <v>39399872</v>
-      </c>
-      <c r="C182" s="2">
-        <v>-8224454</v>
-      </c>
-      <c r="D182" s="1" t="s">
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="1" t="s">
+      <c r="B186" s="2">
+        <v>-21.115141000000001</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B183" s="2">
-        <v>751498</v>
-      </c>
-      <c r="C183" s="2">
-        <v>13458252</v>
-      </c>
-      <c r="D183" s="1" t="s">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="1" t="s">
+      <c r="B187" s="2">
+        <v>45.943161000000003</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B184" s="2">
-        <v>-23442503</v>
-      </c>
-      <c r="C184" s="2">
-        <v>-58443832</v>
-      </c>
-      <c r="D184" s="1" t="s">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="1" t="s">
+      <c r="B188" s="2">
+        <v>44.016520999999997</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B185" s="2">
-        <v>25354826</v>
-      </c>
-      <c r="C185" s="2">
-        <v>51183884</v>
-      </c>
-      <c r="D185" s="1" t="s">
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="1" t="s">
+      <c r="B189" s="2">
+        <v>61.524009999999997</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B186" s="2">
-        <v>-21115141</v>
-      </c>
-      <c r="C186" s="2">
-        <v>55536384</v>
-      </c>
-      <c r="D186" s="1" t="s">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="1" t="s">
+      <c r="B190" s="2">
+        <v>-1.9402779999999999</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B187" s="2">
-        <v>45943161</v>
-      </c>
-      <c r="C187" s="2">
-        <v>2496676</v>
-      </c>
-      <c r="D187" s="1" t="s">
+    </row>
+    <row r="191" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="1" t="s">
+      <c r="B191" s="2">
+        <v>23.885942</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B188" s="2">
-        <v>44016521</v>
-      </c>
-      <c r="C188" s="2">
-        <v>21005859</v>
-      </c>
-      <c r="D188" s="1" t="s">
+    </row>
+    <row r="192" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="1" t="s">
+      <c r="B192" s="2">
+        <v>-9.6457099999999993</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B189" s="2">
-        <v>6152401</v>
-      </c>
-      <c r="C189" s="2">
-        <v>105318756</v>
-      </c>
-      <c r="D189" s="1" t="s">
+    </row>
+    <row r="193" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="1" t="s">
+      <c r="B193" s="2">
+        <v>-4.6795739999999997</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B190" s="2">
-        <v>-1940278</v>
-      </c>
-      <c r="C190" s="2">
-        <v>29873888</v>
-      </c>
-      <c r="D190" s="1" t="s">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="30">
-      <c r="A191" s="1" t="s">
+      <c r="B194" s="2">
+        <v>12.862807</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B191" s="2">
-        <v>23885942</v>
-      </c>
-      <c r="C191" s="2">
-        <v>45079162</v>
-      </c>
-      <c r="D191" s="1" t="s">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" ht="30">
-      <c r="A192" s="1" t="s">
+      <c r="B195" s="2">
+        <v>60.128160999999999</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B192" s="2">
-        <v>-964571</v>
-      </c>
-      <c r="C192" s="2">
-        <v>160156194</v>
-      </c>
-      <c r="D192" s="1" t="s">
+    </row>
+    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" ht="30">
-      <c r="A193" s="1" t="s">
+      <c r="B196" s="2">
+        <v>1.3520829999999999</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B193" s="2">
-        <v>-4679574</v>
-      </c>
-      <c r="C193" s="2">
-        <v>55491977</v>
-      </c>
-      <c r="D193" s="1" t="s">
+    </row>
+    <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="1" t="s">
+      <c r="B197" s="2">
+        <v>-24.143474000000001</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B194" s="2">
-        <v>12862807</v>
-      </c>
-      <c r="C194" s="2">
-        <v>30217636</v>
-      </c>
-      <c r="D194" s="1" t="s">
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="1" t="s">
+      <c r="B198" s="2">
+        <v>46.151240999999999</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B195" s="2">
-        <v>60128161</v>
-      </c>
-      <c r="C195" s="2">
-        <v>18643501</v>
-      </c>
-      <c r="D195" s="1" t="s">
+    </row>
+    <row r="199" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="30">
-      <c r="A196" s="1" t="s">
+      <c r="B199" s="2">
+        <v>77.553604000000007</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B196" s="2">
-        <v>1352083</v>
-      </c>
-      <c r="C196" s="2">
-        <v>103819836</v>
-      </c>
-      <c r="D196" s="1" t="s">
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" ht="30">
-      <c r="A197" s="1" t="s">
+      <c r="B200" s="2">
+        <v>48.669026000000002</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B197" s="2">
-        <v>-24143474</v>
-      </c>
-      <c r="C197" s="2">
-        <v>-10030696</v>
-      </c>
-      <c r="D197" s="1" t="s">
+    </row>
+    <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="1" t="s">
+      <c r="B201" s="2">
+        <v>8.4605549999999994</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B198" s="2">
-        <v>46151241</v>
-      </c>
-      <c r="C198" s="2">
-        <v>14995463</v>
-      </c>
-      <c r="D198" s="1" t="s">
+    </row>
+    <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" ht="45">
-      <c r="A199" s="1" t="s">
+      <c r="B202" s="2">
+        <v>43.942360000000001</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B199" s="2">
-        <v>77553604</v>
-      </c>
-      <c r="C199" s="2">
-        <v>23670272</v>
-      </c>
-      <c r="D199" s="1" t="s">
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="1" t="s">
+      <c r="B203" s="2">
+        <v>14.497401</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B200" s="2">
-        <v>48669026</v>
-      </c>
-      <c r="C200" s="2">
-        <v>19699024</v>
-      </c>
-      <c r="D200" s="1" t="s">
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" ht="30">
-      <c r="A201" s="1" t="s">
+      <c r="B204" s="2">
+        <v>5.1521489999999996</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B201" s="2">
-        <v>8460555</v>
-      </c>
-      <c r="C201" s="2">
-        <v>-11779889</v>
-      </c>
-      <c r="D201" s="1" t="s">
+    </row>
+    <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" ht="30">
-      <c r="A202" s="1" t="s">
+      <c r="B205" s="2">
+        <v>3.919305</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B202" s="2">
-        <v>4394236</v>
-      </c>
-      <c r="C202" s="2">
-        <v>12457777</v>
-      </c>
-      <c r="D202" s="1" t="s">
+    </row>
+    <row r="206" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="1" t="s">
+      <c r="B206" s="2">
+        <v>0.18636</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B203" s="2">
-        <v>14497401</v>
-      </c>
-      <c r="C203" s="2">
-        <v>-14452362</v>
-      </c>
-      <c r="D203" s="1" t="s">
+    </row>
+    <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="1" t="s">
+      <c r="B207" s="2">
+        <v>13.794185000000001</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B204" s="2">
-        <v>5152149</v>
-      </c>
-      <c r="C204" s="2">
-        <v>46199616</v>
-      </c>
-      <c r="D204" s="1" t="s">
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" ht="30">
-      <c r="A205" s="1" t="s">
+      <c r="B208" s="2">
+        <v>34.802075000000002</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B205" s="2">
-        <v>3919305</v>
-      </c>
-      <c r="C205" s="2">
-        <v>-56027783</v>
-      </c>
-      <c r="D205" s="1" t="s">
+    </row>
+    <row r="209" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" ht="60">
-      <c r="A206" s="1" t="s">
+      <c r="B209" s="2">
+        <v>-26.522503</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B206" s="1" t="s">
+    </row>
+    <row r="210" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C206" s="2">
-        <v>6613081</v>
-      </c>
-      <c r="D206" s="1" t="s">
+      <c r="B210" s="2">
+        <v>21.694025</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="30">
-      <c r="A207" s="1" t="s">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B207" s="2">
-        <v>13794185</v>
-      </c>
-      <c r="C207" s="2">
-        <v>-8889653</v>
-      </c>
-      <c r="D207" s="1" t="s">
+      <c r="B211" s="2">
+        <v>15.454166000000001</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="1" t="s">
+    <row r="212" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B208" s="2">
-        <v>34802075</v>
-      </c>
-      <c r="C208" s="2">
-        <v>38996815</v>
-      </c>
-      <c r="D208" s="1" t="s">
+      <c r="B212" s="2">
+        <v>-49.280366000000001</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="30">
-      <c r="A209" s="1" t="s">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B209" s="2">
-        <v>-26522503</v>
-      </c>
-      <c r="C209" s="2">
-        <v>31465866</v>
-      </c>
-      <c r="D209" s="1" t="s">
+      <c r="B213" s="2">
+        <v>8.6195430000000002</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="60">
-      <c r="A210" s="1" t="s">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B210" s="2">
-        <v>21694025</v>
-      </c>
-      <c r="C210" s="2">
-        <v>-71797928</v>
-      </c>
-      <c r="D210" s="1" t="s">
+      <c r="B214" s="2">
+        <v>15.870032</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="1" t="s">
+    <row r="215" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B211" s="2">
-        <v>15454166</v>
-      </c>
-      <c r="C211" s="2">
-        <v>18732207</v>
-      </c>
-      <c r="D211" s="1" t="s">
+      <c r="B215" s="2">
+        <v>38.861033999999997</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="60">
-      <c r="A212" s="1" t="s">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B212" s="2">
-        <v>-49280366</v>
-      </c>
-      <c r="C212" s="2">
-        <v>69348557</v>
-      </c>
-      <c r="D212" s="1" t="s">
+      <c r="B216" s="2">
+        <v>-8.9673630000000006</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="1" t="s">
+    <row r="217" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B213" s="2">
-        <v>8619543</v>
-      </c>
-      <c r="C213" s="1" t="s">
+      <c r="B217" s="2">
+        <v>-8.8742169999999998</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D213" s="1" t="s">
+    </row>
+    <row r="218" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="1" t="s">
+      <c r="B218" s="2">
+        <v>38.969718999999998</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B214" s="2">
-        <v>15870032</v>
-      </c>
-      <c r="C214" s="2">
-        <v>100992541</v>
-      </c>
-      <c r="D214" s="1" t="s">
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" ht="30">
-      <c r="A215" s="1" t="s">
+      <c r="B219" s="2">
+        <v>33.886916999999997</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B215" s="2">
-        <v>38861034</v>
-      </c>
-      <c r="C215" s="2">
-        <v>71276093</v>
-      </c>
-      <c r="D215" s="1" t="s">
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="1" t="s">
+      <c r="B220" s="2">
+        <v>-21.178985999999998</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B216" s="2">
-        <v>-8967363</v>
-      </c>
-      <c r="C216" s="2">
-        <v>-171855881</v>
-      </c>
-      <c r="D216" s="1" t="s">
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" ht="30">
-      <c r="A217" s="1" t="s">
+      <c r="B221" s="2">
+        <v>38.963745000000003</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B217" s="2">
-        <v>-8874217</v>
-      </c>
-      <c r="C217" s="2">
-        <v>125727539</v>
-      </c>
-      <c r="D217" s="1" t="s">
+    </row>
+    <row r="222" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" ht="30">
-      <c r="A218" s="1" t="s">
+      <c r="B222" s="2">
+        <v>10.691803</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B218" s="2">
-        <v>38969719</v>
-      </c>
-      <c r="C218" s="2">
-        <v>59556278</v>
-      </c>
-      <c r="D218" s="1" t="s">
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="1" t="s">
+      <c r="B223" s="2">
+        <v>-7.1095350000000002</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B219" s="2">
-        <v>33886917</v>
-      </c>
-      <c r="C219" s="2">
-        <v>9537499</v>
-      </c>
-      <c r="D219" s="1" t="s">
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="1" t="s">
+      <c r="B224" s="2">
+        <v>23.69781</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B220" s="2">
-        <v>-21178986</v>
-      </c>
-      <c r="C220" s="2">
-        <v>-175198242</v>
-      </c>
-      <c r="D220" s="1" t="s">
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="1" t="s">
+      <c r="B225" s="2">
+        <v>-6.3690280000000001</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B221" s="2">
-        <v>38963745</v>
-      </c>
-      <c r="C221" s="2">
-        <v>35243322</v>
-      </c>
-      <c r="D221" s="1" t="s">
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" ht="45">
-      <c r="A222" s="1" t="s">
+      <c r="B226" s="2">
+        <v>48.379432999999999</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B222" s="2">
-        <v>10691803</v>
-      </c>
-      <c r="C222" s="2">
-        <v>-61222503</v>
-      </c>
-      <c r="D222" s="1" t="s">
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="1" t="s">
+      <c r="B227" s="2">
+        <v>1.3733329999999999</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B223" s="2">
-        <v>-7109535</v>
-      </c>
-      <c r="C223" s="2">
-        <v>17764933</v>
-      </c>
-      <c r="D223" s="1" t="s">
+    </row>
+    <row r="228" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="1" t="s">
+      <c r="B228" s="2">
+        <v>37.090240000000001</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B224" s="2">
-        <v>2369781</v>
-      </c>
-      <c r="C224" s="2">
-        <v>120960515</v>
-      </c>
-      <c r="D224" s="1" t="s">
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="1" t="s">
+      <c r="B229" s="2">
+        <v>-32.522779</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B225" s="2">
-        <v>-6369028</v>
-      </c>
-      <c r="C225" s="2">
-        <v>34888822</v>
-      </c>
-      <c r="D225" s="1" t="s">
+    </row>
+    <row r="230" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="1" t="s">
+      <c r="B230" s="2">
+        <v>41.377490999999999</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B226" s="2">
-        <v>48379433</v>
-      </c>
-      <c r="C226" s="2">
-        <v>3116558</v>
-      </c>
-      <c r="D226" s="1" t="s">
+    </row>
+    <row r="231" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="1" t="s">
+      <c r="B231" s="2">
+        <v>41.902915999999998</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B227" s="2">
-        <v>1373333</v>
-      </c>
-      <c r="C227" s="2">
-        <v>32290275</v>
-      </c>
-      <c r="D227" s="1" t="s">
+    </row>
+    <row r="232" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" ht="60">
-      <c r="A228" s="1" t="s">
+      <c r="B232" s="2">
+        <v>12.984305000000001</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1" t="s">
+    </row>
+    <row r="233" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" ht="30">
-      <c r="A229" s="1" t="s">
+      <c r="B233" s="2">
+        <v>6.4237500000000001</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B229" s="2">
-        <v>3709024</v>
-      </c>
-      <c r="C229" s="2">
-        <v>-95712891</v>
-      </c>
-      <c r="D229" s="1" t="s">
+    </row>
+    <row r="234" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="1" t="s">
+      <c r="B234" s="2">
+        <v>18.420694999999998</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B230" s="2">
-        <v>-32522779</v>
-      </c>
-      <c r="C230" s="2">
-        <v>-55765835</v>
-      </c>
-      <c r="D230" s="1" t="s">
+    </row>
+    <row r="235" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" ht="30">
-      <c r="A231" s="1" t="s">
+      <c r="B235" s="2">
+        <v>18.335764999999999</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B231" s="2">
-        <v>41377491</v>
-      </c>
-      <c r="C231" s="2">
-        <v>64585262</v>
-      </c>
-      <c r="D231" s="1" t="s">
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" ht="30">
-      <c r="A232" s="1" t="s">
+      <c r="B236" s="2">
+        <v>14.058324000000001</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B232" s="2">
-        <v>41902916</v>
-      </c>
-      <c r="C232" s="2">
-        <v>12453389</v>
-      </c>
-      <c r="D232" s="1" t="s">
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" ht="75">
-      <c r="A233" s="1" t="s">
+      <c r="B237" s="2">
+        <v>-15.376706</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B233" s="2">
-        <v>12984305</v>
-      </c>
-      <c r="C233" s="2">
-        <v>-61287228</v>
-      </c>
-      <c r="D233" s="1" t="s">
+    </row>
+    <row r="238" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" ht="30">
-      <c r="A234" s="1" t="s">
+      <c r="B238" s="2">
+        <v>-13.768751999999999</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B234" s="2">
-        <v>642375</v>
-      </c>
-      <c r="C234" s="2">
-        <v>-6658973</v>
-      </c>
-      <c r="D234" s="1" t="s">
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" ht="45">
-      <c r="A235" s="1" t="s">
+      <c r="B239" s="2">
+        <v>-13.759029</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B235" s="2">
-        <v>18420695</v>
-      </c>
-      <c r="C235" s="2">
-        <v>-64639968</v>
-      </c>
-      <c r="D235" s="1" t="s">
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" ht="45">
-      <c r="A236" s="1" t="s">
+      <c r="B240" s="2">
+        <v>42.602635999999997</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B236" s="2">
-        <v>18335765</v>
-      </c>
-      <c r="C236" s="2">
-        <v>-64896335</v>
-      </c>
-      <c r="D236" s="1" t="s">
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="1" t="s">
+      <c r="B241" s="2">
+        <v>15.552727000000001</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B237" s="2">
-        <v>14058324</v>
-      </c>
-      <c r="C237" s="2">
-        <v>108277199</v>
-      </c>
-      <c r="D237" s="1" t="s">
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="1" t="s">
+      <c r="B242" s="2">
+        <v>-12.827500000000001</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B238" s="2">
-        <v>-15376706</v>
-      </c>
-      <c r="C238" s="2">
-        <v>166959158</v>
-      </c>
-      <c r="D238" s="1" t="s">
+    </row>
+    <row r="243" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" ht="45">
-      <c r="A239" s="1" t="s">
+      <c r="B243" s="2">
+        <v>-30.559481999999999</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B239" s="2">
-        <v>-13768752</v>
-      </c>
-      <c r="C239" s="2">
-        <v>-177156097</v>
-      </c>
-      <c r="D239" s="1" t="s">
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="1" t="s">
+      <c r="B244" s="2">
+        <v>-13.133896999999999</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B240" s="2">
-        <v>-13759029</v>
-      </c>
-      <c r="C240" s="2">
-        <v>-172104629</v>
-      </c>
-      <c r="D240" s="1" t="s">
+    </row>
+    <row r="245" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="1" t="s">
+      <c r="B245" s="2">
+        <v>-19.015438</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B241" s="2">
-        <v>42602636</v>
-      </c>
-      <c r="C241" s="2">
-        <v>20902977</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="1" t="s">
+    </row>
+    <row r="247" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="B242" s="2">
-        <v>15552727</v>
-      </c>
-      <c r="C242" s="2">
-        <v>48516388</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B243" s="2">
-        <v>-128275</v>
-      </c>
-      <c r="C243" s="2">
-        <v>45166244</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="30">
-      <c r="A244" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B244" s="2">
-        <v>-30559482</v>
-      </c>
-      <c r="C244" s="2">
-        <v>22937506</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B245" s="2">
-        <v>-13133897</v>
-      </c>
-      <c r="C245" s="2">
-        <v>27849332</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="30">
-      <c r="A246" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B246" s="2">
-        <v>-19015438</v>
-      </c>
-      <c r="C246" s="2">
-        <v>29154857</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="150">
-      <c r="A248" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>